--- a/biology/Zoologie/Chaetodon_xanthurus/Chaetodon_xanthurus.xlsx
+++ b/biology/Zoologie/Chaetodon_xanthurus/Chaetodon_xanthurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon xanthurus · Poisson-papillon à filet
-Chaetodon xanthurus, communément nommé Poisson-papillon à filet[1], est une espèce de poisson marin de la famille des Chaetodontidae.
+Chaetodon xanthurus, communément nommé Poisson-papillon à filet, est une espèce de poisson marin de la famille des Chaetodontidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-papillon à filet est présent dans les eaux tropicales de la région centrale de l'Indo-Pacifique[2]. Mer Rouge, golfe d'Aden, Océan Indien (Bassin Indo-Pacifique).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-papillon à filet est présent dans les eaux tropicales de la région centrale de l'Indo-Pacifique. Mer Rouge, golfe d'Aden, Océan Indien (Bassin Indo-Pacifique).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est comprise entre 14 cm[3] et 15 centimètres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est comprise entre 14 cm et 15 centimètres.
 </t>
         </is>
       </c>
